--- a/Team-Data/2008-09/12-18-2008-09.xlsx
+++ b/Team-Data/2008-09/12-18-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -874,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
         <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P3" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U3" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
         <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -1017,34 +1017,34 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>28</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1187,13 +1187,13 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1208,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1279,88 +1279,88 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.458</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.803</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1369,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1387,28 +1387,28 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="O6" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>103</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1557,13 +1557,13 @@
         <v>5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
@@ -1572,28 +1572,28 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1745,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1781,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1903,7 +1903,7 @@
         <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>20</v>
@@ -2085,7 +2085,7 @@
         <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2121,10 +2121,10 @@
         <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>24</v>
@@ -2148,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
@@ -2267,7 +2267,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2279,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2291,7 +2291,7 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>21</v>
@@ -2318,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2333,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2467,10 +2467,10 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2485,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>24</v>
@@ -2631,19 +2631,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2661,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2831,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2944,37 +2944,37 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.7</v>
@@ -2983,28 +2983,28 @@
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA14" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD14" t="n">
         <v>23</v>
       </c>
-      <c r="AB14" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>27</v>
-      </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3019,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
         <v>14</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3034,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3049,19 +3049,19 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3177,13 +3177,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3216,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3240,7 +3240,7 @@
         <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>
@@ -3359,7 +3359,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3395,7 +3395,7 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3463,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.423</v>
+        <v>0.407</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.77</v>
@@ -3508,16 +3508,16 @@
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
         <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
         <v>6.6</v>
@@ -3529,31 +3529,31 @@
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3562,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3571,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3589,13 +3589,13 @@
         <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW17" t="n">
         <v>24</v>
@@ -3604,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3613,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC17" t="n">
         <v>19</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3735,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>24</v>
@@ -3759,10 +3759,10 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3774,10 +3774,10 @@
         <v>15</v>
       </c>
       <c r="AU18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV18" t="n">
         <v>13</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3789,10 +3789,10 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>27</v>
@@ -3905,7 +3905,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3926,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3944,7 +3944,7 @@
         <v>7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3965,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>22</v>
@@ -4162,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,10 +4269,10 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
@@ -4290,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>27</v>
@@ -4308,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4335,7 +4335,7 @@
         <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
@@ -4451,7 +4451,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4505,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4633,7 +4633,7 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4654,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4815,10 +4815,10 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4851,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4869,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>12</v>
@@ -4878,10 +4878,10 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>26</v>
@@ -4997,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -5012,7 +5012,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
@@ -5024,13 +5024,13 @@
         <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5069,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5101,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.64</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.782</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>13.5</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T26" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH26" t="n">
         <v>7</v>
       </c>
-      <c r="AG26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5209,16 +5209,16 @@
         <v>7</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5239,22 +5239,22 @@
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>10</v>
@@ -5394,10 +5394,10 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5543,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5552,13 +5552,13 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5597,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5725,7 +5725,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5755,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5922,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5979,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -6089,7 +6089,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6104,7 +6104,7 @@
         <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
         <v>14</v>
@@ -6125,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6158,10 +6158,10 @@
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>

--- a/Team-Data/2008-09/12-18-2008-09.xlsx
+++ b/Team-Data/2008-09/12-18-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -753,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -780,10 +847,10 @@
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>20</v>
@@ -807,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
         <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P3" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U3" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
         <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -950,34 +1017,34 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>28</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -998,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1120,13 +1187,13 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1141,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -1212,88 +1279,88 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.458</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.803</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,25 +1390,25 @@
         <v>10</v>
       </c>
       <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1353,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="O6" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>103</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1490,13 +1557,13 @@
         <v>5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>8</v>
@@ -1505,28 +1572,28 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
         <v>11</v>
       </c>
-      <c r="AP6" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1538,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1663,13 +1730,13 @@
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1678,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1714,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
@@ -1726,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,10 +1918,10 @@
         <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1899,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2027,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -2039,7 +2106,7 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2051,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="AO9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>18</v>
       </c>
       <c r="AR9" t="n">
         <v>24</v>
@@ -2072,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2081,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
@@ -2093,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2224,7 +2291,7 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -2236,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>21</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2266,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2400,13 +2467,13 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
@@ -2418,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2430,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>24</v>
@@ -2439,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,7 +2515,7 @@
         <v>28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2594,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2609,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2815,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.87</v>
+        <v>0.875</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,37 +2944,37 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.7</v>
@@ -2916,28 +2983,28 @@
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA14" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD14" t="n">
         <v>23</v>
       </c>
-      <c r="AB14" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>27</v>
-      </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2952,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
         <v>14</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -3131,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3149,10 +3216,10 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
@@ -3167,13 +3234,13 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3307,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3316,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>6</v>
@@ -3328,7 +3395,7 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.423</v>
+        <v>0.407</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.77</v>
@@ -3441,16 +3508,16 @@
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
         <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
         <v>6.6</v>
@@ -3462,31 +3529,31 @@
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -3495,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3504,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3522,13 +3589,13 @@
         <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW17" t="n">
         <v>24</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>24</v>
@@ -3689,13 +3756,13 @@
         <v>28</v>
       </c>
       <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
         <v>18</v>
       </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3707,10 +3774,10 @@
         <v>15</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3859,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3868,16 +3935,16 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3889,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="AU19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>6</v>
@@ -3898,7 +3965,7 @@
         <v>27</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>22</v>
@@ -3910,7 +3977,7 @@
         <v>9</v>
       </c>
       <c r="BB19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4083,7 +4150,7 @@
         <v>24</v>
       </c>
       <c r="AY20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
         <v>16</v>
@@ -4092,10 +4159,10 @@
         <v>15</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
@@ -4223,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>27</v>
@@ -4241,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4438,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.769</v>
+        <v>0.76</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,40 +4573,40 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K23" t="n">
         <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M23" t="n">
         <v>25.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="O23" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="P23" t="n">
-        <v>26.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.5</v>
@@ -4551,25 +4618,25 @@
         <v>6.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,28 +4663,28 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
@@ -4629,16 +4696,16 @@
         <v>3</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -4784,7 +4851,7 @@
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4793,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4802,7 +4869,7 @@
         <v>25</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>12</v>
@@ -4811,7 +4878,7 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -4852,100 +4919,100 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0.577</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.501</v>
+        <v>0.498</v>
       </c>
       <c r="L25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
         <v>18</v>
       </c>
       <c r="N25" t="n">
-        <v>0.398</v>
+        <v>0.388</v>
       </c>
       <c r="O25" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P25" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.743</v>
       </c>
       <c r="R25" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>40</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
         <v>16.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.2</v>
+        <v>102.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
@@ -4954,49 +5021,49 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5064,76 +5131,76 @@
         <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,52 +5209,52 @@
         <v>7</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>10</v>
@@ -5327,10 +5394,10 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J28" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5431,16 +5498,16 @@
         <v>0.395</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.756</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
         <v>31.9</v>
@@ -5449,10 +5516,10 @@
         <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W28" t="n">
         <v>5</v>
@@ -5461,43 +5528,43 @@
         <v>3.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>20</v>
@@ -5530,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5542,16 +5609,16 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA28" t="n">
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5688,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5724,13 +5791,13 @@
         <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA29" t="n">
         <v>16</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -5843,19 +5910,19 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
         <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
@@ -5876,10 +5943,10 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5912,7 +5979,7 @@
         <v>4</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6055,10 +6122,10 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6067,7 +6134,7 @@
         <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
@@ -6091,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-18-2008-09</t>
+          <t>2008-12-18</t>
         </is>
       </c>
     </row>
